--- a/Bis 1-340.xlsx
+++ b/Bis 1-340.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caiog\Documents\INSPER 2º\CDADOS\PROJETO 1 GIT\PROJETO-1-CDADOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Downloads\INSPER\2 SEMESTRE (2021.2)\CDados\Projeto 1\PROJETO-1-CDADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EEBC738-C7DD-405B-AEB6-49C177131C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98703803-91BC-4DDE-BCD6-049836EC5AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10200" windowWidth="28800" windowHeight="6000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -3314,10 +3314,10 @@
     <t>Neutro</t>
   </si>
   <si>
-    <t>relvante</t>
-  </si>
-  <si>
-    <t>essencial</t>
+    <t>Relevante</t>
+  </si>
+  <si>
+    <t>Essencial</t>
   </si>
 </sst>
 </file>
@@ -3741,8 +3741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6194,8 +6194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E701"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A319" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B369" sqref="B369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6553,1719 +6553,2705 @@
       <c r="A41" t="s">
         <v>340</v>
       </c>
-      <c r="B41" s="5"/>
+      <c r="B41" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>341</v>
       </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>342</v>
       </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>343</v>
       </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>344</v>
       </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>345</v>
       </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>346</v>
       </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B287">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B304">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B312">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B313">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B323">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B329">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B331">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B341">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B344">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B353">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B354">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B369">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>683</v>
       </c>

--- a/Bis 1-340.xlsx
+++ b/Bis 1-340.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Downloads\INSPER\2 SEMESTRE (2021.2)\CDados\Projeto 1\PROJETO-1-CDADOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Desktop\INSPER\CDADOS\Nova pasta\PROJETO-1-CDADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98703803-91BC-4DDE-BCD6-049836EC5AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6378A97E-C486-4621-9735-849CDF558847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10200" windowWidth="28800" windowHeight="6000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -3741,18 +3741,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="241.28515625" customWidth="1"/>
+    <col min="1" max="1" width="241.26953125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>1001</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>229</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>249</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>251</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>253</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>255</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>257</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>258</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>259</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>260</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>261</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>262</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>263</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>264</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>265</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>266</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>267</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>268</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>269</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>270</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>271</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>272</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>273</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>274</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>275</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>276</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>277</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>278</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>279</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>280</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>281</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>282</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>283</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>284</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>285</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>286</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>287</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>288</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>289</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>290</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>291</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>292</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>293</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>294</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>295</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>296</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>297</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>298</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>299</v>
       </c>
@@ -6194,18 +6194,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B369" sqref="B369"/>
+    <sheetView tabSelected="1" topLeftCell="A570" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="B601" sqref="B601"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="240.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="240.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>306</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>307</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>308</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>309</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>310</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>311</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>312</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>313</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>314</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>315</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>316</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>317</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>318</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>319</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>320</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>321</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>322</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>323</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>324</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>325</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>326</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>328</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>329</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>330</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>331</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>332</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>333</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>334</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>335</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>336</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>337</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>338</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>339</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>340</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>341</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>342</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>343</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>344</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>345</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>346</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>347</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>348</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>349</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>350</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>351</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>352</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>353</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>354</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>355</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>356</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>357</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>358</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>359</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>360</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>361</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>362</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>363</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>364</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>365</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>366</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>367</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>368</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>369</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>370</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>371</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>373</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>374</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>375</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>376</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>377</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>378</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>379</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>380</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>381</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>382</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>383</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>384</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>385</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>386</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>387</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>388</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>389</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>390</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>391</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>392</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>393</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>394</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>395</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>396</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>397</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>398</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>399</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>400</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>401</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>402</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>403</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>404</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>405</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>406</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>407</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>408</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>409</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>410</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>411</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>412</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>413</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>414</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>415</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>416</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>417</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>418</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>419</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>420</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>421</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>422</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>423</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>424</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>425</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>426</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>427</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>428</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>429</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>430</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>431</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>432</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>433</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>434</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>435</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>436</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>437</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>438</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>439</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>440</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>441</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>442</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>443</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>444</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>445</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>446</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>447</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>448</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>449</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>450</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>451</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>452</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>453</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>454</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>455</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>456</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>457</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>458</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>459</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>460</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>461</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>462</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>463</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>464</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>465</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>466</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>467</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>468</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>469</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>470</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>471</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>472</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>473</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>474</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>475</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>476</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>477</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>478</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>479</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>480</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>481</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>482</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>483</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>484</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>485</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>486</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>487</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>488</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>489</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>490</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>491</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>492</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>493</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>494</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>495</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>496</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>497</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>498</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>499</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>500</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>501</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>502</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>503</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>504</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>505</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>506</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>507</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>508</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>509</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>510</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>511</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>512</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>513</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>514</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>515</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>516</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>517</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>518</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>519</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>520</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>521</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>522</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>523</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>524</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>525</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>526</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>527</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>528</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>529</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>530</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>531</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>532</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>533</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>534</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>535</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>536</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>537</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>538</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>539</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>540</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>541</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>542</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>543</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>544</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>545</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>546</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>547</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>548</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>549</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>550</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>551</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>552</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>553</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>554</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>555</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>556</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>557</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>558</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>559</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>560</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>561</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>562</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>563</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>564</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>565</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>566</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>567</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>568</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>569</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>570</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>571</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>572</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>573</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>574</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>575</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>576</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>577</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>578</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>579</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>580</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>581</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>582</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>583</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>584</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>585</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>586</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>587</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>588</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>589</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>590</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>591</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>592</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>593</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>594</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>595</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>596</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>597</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>598</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>599</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>600</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>601</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>602</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>603</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>604</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>605</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>606</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>607</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>608</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>609</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>610</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>611</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>612</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>613</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>614</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>615</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>616</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>617</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>618</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>619</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>620</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>621</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>622</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>623</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>624</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>625</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>626</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>627</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>628</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>629</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>630</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>631</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>632</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>633</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>634</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>635</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>636</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>637</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>638</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>639</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>640</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>641</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>642</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>643</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>644</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>645</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>646</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>647</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>648</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>649</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>650</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>651</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>652</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>653</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>654</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>655</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>656</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>657</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>658</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>659</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>660</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>661</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>662</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>663</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>664</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>665</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>666</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>667</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>668</v>
       </c>
@@ -9181,1662 +9181,2358 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B377">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B380">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B391">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B400">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B401">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B406">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B413">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B415">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B417">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B421">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B440">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B441">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B444">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B446">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B448">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B451">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B456">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B460">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B464">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B465">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B481">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B484">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B485">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B488">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B498">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B499">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B500">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B501">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B503">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B504">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B505">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B507">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B511">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B512">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B513">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B518">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B519">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B520">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B522">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B525">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B526">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B528">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B531">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B533">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B540">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B542">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B543">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B549">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B553">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B555">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B560">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B561">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B564">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B565">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B572">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B574">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B578">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B583">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B588">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B590">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B594">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B595">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B598">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>1000</v>
       </c>

--- a/Bis 1-340.xlsx
+++ b/Bis 1-340.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Desktop\INSPER\CDADOS\Nova pasta\PROJETO-1-CDADOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\INSPER\CIENCIA DE DADOS\PROJETO-1-CDADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6378A97E-C486-4621-9735-849CDF558847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4AA428-AF3F-43BE-983E-0B324EFE7D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -3741,18 +3741,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A232" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="241.26953125" customWidth="1"/>
+    <col min="1" max="1" width="241.21875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>1001</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>229</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>249</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>251</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>253</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>255</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>257</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>258</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>259</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>260</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>261</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>262</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>263</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>264</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>265</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>266</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>267</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>268</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>269</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>270</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>271</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>272</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>273</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>274</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>275</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>276</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>277</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>278</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>279</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>280</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>281</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>282</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>283</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>284</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>285</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>286</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>287</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>288</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>289</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>290</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>291</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>292</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>293</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>294</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>295</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>296</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>297</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>298</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>299</v>
       </c>
@@ -6194,18 +6194,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A570" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="B601" sqref="B601"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B692" sqref="B692"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="240.453125" customWidth="1"/>
-    <col min="2" max="2" width="23.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="240.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>306</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>307</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>308</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>309</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>310</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>311</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>312</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>313</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>314</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>315</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>316</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>317</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>318</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>319</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>320</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>321</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>322</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>323</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>324</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>325</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>326</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>328</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>329</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>330</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>331</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>332</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>333</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>334</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>335</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>336</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>337</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>338</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>339</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>340</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>341</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>342</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>343</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>344</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>345</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>346</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>347</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>348</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>349</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>350</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>351</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>352</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>353</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>354</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>355</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>356</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>357</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>358</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>359</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>360</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>361</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>362</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>363</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>364</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>365</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>366</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>367</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>368</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>369</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>370</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>371</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>373</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>374</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>375</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>376</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>377</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>378</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>379</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>380</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>381</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>382</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>383</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>384</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>385</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>386</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>387</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>388</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>389</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>390</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>391</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>392</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>393</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>394</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>395</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>396</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>397</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>398</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>399</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>400</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>401</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>402</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>403</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>404</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>405</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>406</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>407</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>408</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>409</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>410</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>411</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>412</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>413</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>414</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>415</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>416</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>417</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>418</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>419</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>420</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>421</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>422</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>423</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>424</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>425</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>426</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>427</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>428</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>429</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>430</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>431</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>432</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>433</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>434</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>435</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>436</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>437</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>438</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>439</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>440</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>441</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>442</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>443</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>444</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>445</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>446</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>447</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>448</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>449</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>450</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>451</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>452</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>453</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>454</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>455</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>456</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>457</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>458</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>459</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>460</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>461</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>462</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>463</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>464</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>465</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>466</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>467</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>468</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>469</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>470</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>471</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>472</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>473</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>474</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>475</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>476</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>477</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>478</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>479</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>480</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>481</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>482</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>483</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>484</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>485</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>486</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>487</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>488</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>489</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>490</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>491</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>492</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>493</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>494</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>495</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>496</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>497</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>498</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>499</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>500</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>501</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>502</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>503</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>504</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>505</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>506</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>507</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>508</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>509</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>510</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>511</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>512</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>513</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>514</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>515</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>516</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>517</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>518</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>519</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>520</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>521</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>522</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>523</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>524</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>525</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>526</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>527</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>528</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>529</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>530</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>531</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>532</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>533</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>534</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>535</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>536</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>537</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>538</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>539</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>540</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>541</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>542</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>543</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>544</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>545</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>546</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>547</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>548</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>549</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>550</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>551</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>552</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>553</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>554</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>555</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>556</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>557</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>558</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>559</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>560</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>561</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>562</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>563</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>564</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>565</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>566</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>567</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>568</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>569</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>570</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>571</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>572</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>573</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>574</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>575</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>576</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>577</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>578</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>579</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>580</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>581</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>582</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>583</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>584</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>585</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>586</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>587</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>588</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>589</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>590</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>591</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>592</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>593</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>594</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>595</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>596</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>597</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>598</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>599</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>600</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>601</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>602</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>603</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>604</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>605</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>606</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>607</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>608</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>609</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>610</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>611</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>612</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>613</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>614</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>615</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>616</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>617</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>618</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>619</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>620</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>621</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>622</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>623</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>624</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>625</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>626</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>627</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>628</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>629</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>630</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>631</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>632</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>633</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>634</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>635</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>636</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>637</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>638</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>639</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>640</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>641</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>642</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>643</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>644</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>645</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>646</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>647</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>648</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>649</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>650</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>651</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>652</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>653</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>654</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>655</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>656</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>657</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>658</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>659</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>660</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>661</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>662</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>663</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>664</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>665</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>666</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>667</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>668</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>669</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>670</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>671</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>672</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>673</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>674</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>675</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>676</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>677</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>678</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>679</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>680</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>681</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>682</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>683</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>684</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>685</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>686</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>687</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>688</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>689</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>690</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>691</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>692</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>693</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>694</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>695</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>696</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>697</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>698</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>699</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>700</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>701</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>702</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>703</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>704</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>705</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>706</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>707</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>708</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>709</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>710</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>711</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>712</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>713</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>714</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>715</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>716</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>717</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>718</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>719</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>720</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>721</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>722</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>723</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>724</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>725</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>726</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>727</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>728</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>729</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>730</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>731</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>732</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>733</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>734</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>735</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>736</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>737</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>738</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>739</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>740</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>741</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>742</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>743</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>744</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>745</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>746</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>747</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>748</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>749</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>750</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>751</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>752</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>753</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>754</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>755</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>756</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>757</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>758</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>759</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>760</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>761</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>762</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>763</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>764</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>765</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>766</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>767</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>768</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>769</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>770</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>771</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>772</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>773</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>774</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>775</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>776</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>777</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>778</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>779</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>780</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>781</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>782</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>783</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>784</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>785</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>786</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>787</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>788</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>789</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>790</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>791</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>792</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>793</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>794</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>795</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>796</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>797</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>798</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>799</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>800</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>801</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>802</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>803</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>804</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>805</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>806</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>807</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>808</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>809</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>810</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>811</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>812</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>813</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>814</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>815</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>816</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>817</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>818</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>819</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>820</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>821</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>822</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>823</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>824</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>825</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>826</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>827</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>828</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>829</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>830</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>831</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>832</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>833</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>834</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>835</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>836</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>837</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>838</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>839</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>840</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>841</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>842</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>843</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>844</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>845</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>846</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>847</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>848</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>849</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>850</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>851</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>852</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>853</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>854</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>855</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>856</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>857</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>858</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>859</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>860</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>861</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>862</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>863</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>864</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>865</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>866</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>867</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>868</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>869</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>870</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>871</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>872</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>873</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>874</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>875</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>876</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>877</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>878</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>879</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>880</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>881</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>882</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>883</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>884</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>885</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>886</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>887</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>888</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>889</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>890</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>891</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>892</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>893</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>894</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>895</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>896</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>897</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>898</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>899</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>900</v>
       </c>
@@ -11037,504 +11037,804 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B602">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B604">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B606">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B610">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B613">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B615">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B616">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B617">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B619">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B621">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B623">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B626">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B627">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B635">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B637">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B639">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B640">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B641">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B643">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B644">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B645">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B647">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B650">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B651">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B652">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B653">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B661">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B662">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B663">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B664">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B667">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B670">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B672">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B675">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B676">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B678">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B680">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B682">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B685">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B687">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B688">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B690">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B691">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B698">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B700">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>1000</v>
+      </c>
+      <c r="B701">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
